--- a/inputs/AddictO_Not_yet_classified_Defs.xlsx
+++ b/inputs/AddictO_Not_yet_classified_Defs.xlsx
@@ -525,36 +525,40 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>CHEBI:66932</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr"/>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="n">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>

--- a/inputs/AddictO_Not_yet_classified_Defs.xlsx
+++ b/inputs/AddictO_Not_yet_classified_Defs.xlsx
@@ -30,12 +30,17 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fffacd"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -525,40 +531,40 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>CHEBI:66932</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>In Discussion</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -1381,76 +1387,76 @@
       <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>CHEBI:15368</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>acrolein</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="n">
+      <c r="C29" s="3" t="inlineStr"/>
+      <c r="D29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr"/>
+      <c r="G29" s="3" t="inlineStr"/>
+      <c r="H29" s="3" t="inlineStr"/>
+      <c r="I29" s="3" t="inlineStr"/>
+      <c r="J29" s="3" t="inlineStr"/>
+      <c r="K29" s="3" t="inlineStr"/>
+      <c r="L29" s="3" t="inlineStr"/>
+      <c r="M29" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr"/>
-      <c r="Q29" s="2" t="inlineStr">
+      <c r="N29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="inlineStr"/>
+      <c r="P29" s="3" t="inlineStr"/>
+      <c r="Q29" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R29" s="2" t="inlineStr"/>
+      <c r="R29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>CHEBI:28217</t>
         </is>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>acrylonitrile</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="n">
+      <c r="C30" s="3" t="inlineStr"/>
+      <c r="D30" s="3" t="inlineStr"/>
+      <c r="E30" s="3" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr"/>
+      <c r="G30" s="3" t="inlineStr"/>
+      <c r="H30" s="3" t="inlineStr"/>
+      <c r="I30" s="3" t="inlineStr"/>
+      <c r="J30" s="3" t="inlineStr"/>
+      <c r="K30" s="3" t="inlineStr"/>
+      <c r="L30" s="3" t="inlineStr"/>
+      <c r="M30" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
-      <c r="Q30" s="2" t="inlineStr">
+      <c r="N30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3" t="inlineStr"/>
+      <c r="P30" s="3" t="inlineStr"/>
+      <c r="Q30" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R30" s="2" t="inlineStr"/>
+      <c r="R30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -2029,52 +2035,52 @@
       <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>CHEBI:23888</t>
         </is>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>drug</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>A substance which when absorbed into a living organism may modify one or more of its functions. The term is generally accepted for a substance taken for a therapeutic purpose, but is also commonly used for abused substances.</t>
         </is>
       </c>
-      <c r="D49" s="2" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>pharmaceutical</t>
         </is>
       </c>
-      <c r="E49" s="2" t="inlineStr">
+      <c r="E49" s="3" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="n">
+      <c r="F49" s="3" t="inlineStr"/>
+      <c r="G49" s="3" t="inlineStr"/>
+      <c r="H49" s="3" t="inlineStr"/>
+      <c r="I49" s="3" t="inlineStr"/>
+      <c r="J49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr"/>
+      <c r="L49" s="3" t="inlineStr"/>
+      <c r="M49" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr"/>
-      <c r="Q49" s="2" t="inlineStr">
+      <c r="N49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="inlineStr"/>
+      <c r="P49" s="3" t="inlineStr"/>
+      <c r="Q49" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R49" s="2" t="inlineStr"/>
+      <c r="R49" s="3" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7209,40 +7215,40 @@
       <c r="R209" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="inlineStr">
+      <c r="A210" s="3" t="inlineStr">
         <is>
           <t>CHEBI:25212</t>
         </is>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" s="3" t="inlineStr">
         <is>
           <t>metabolite</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr"/>
-      <c r="D210" s="2" t="inlineStr"/>
-      <c r="E210" s="2" t="inlineStr"/>
-      <c r="F210" s="2" t="inlineStr"/>
-      <c r="G210" s="2" t="inlineStr"/>
-      <c r="H210" s="2" t="inlineStr"/>
-      <c r="I210" s="2" t="inlineStr"/>
-      <c r="J210" s="2" t="inlineStr"/>
-      <c r="K210" s="2" t="inlineStr"/>
-      <c r="L210" s="2" t="inlineStr"/>
-      <c r="M210" s="2" t="n">
+      <c r="C210" s="3" t="inlineStr"/>
+      <c r="D210" s="3" t="inlineStr"/>
+      <c r="E210" s="3" t="inlineStr"/>
+      <c r="F210" s="3" t="inlineStr"/>
+      <c r="G210" s="3" t="inlineStr"/>
+      <c r="H210" s="3" t="inlineStr"/>
+      <c r="I210" s="3" t="inlineStr"/>
+      <c r="J210" s="3" t="inlineStr"/>
+      <c r="K210" s="3" t="inlineStr"/>
+      <c r="L210" s="3" t="inlineStr"/>
+      <c r="M210" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O210" s="2" t="inlineStr"/>
-      <c r="P210" s="2" t="inlineStr"/>
-      <c r="Q210" s="2" t="inlineStr">
+      <c r="N210" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" s="3" t="inlineStr"/>
+      <c r="P210" s="3" t="inlineStr"/>
+      <c r="Q210" s="3" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R210" s="2" t="inlineStr"/>
+      <c r="R210" s="3" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr"/>

--- a/inputs/AddictO_Not_yet_classified_Defs.xlsx
+++ b/inputs/AddictO_Not_yet_classified_Defs.xlsx
@@ -30,17 +30,12 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00fffacd"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -60,11 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -531,40 +525,40 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>CHEBI:66932</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr"/>
-      <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="n">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
-        <is>
-          <t>In Discussion</t>
-        </is>
-      </c>
-      <c r="R2" s="2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -1387,76 +1381,76 @@
       <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>CHEBI:15368</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>acrolein</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr"/>
-      <c r="D29" s="3" t="inlineStr"/>
-      <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="3" t="inlineStr"/>
-      <c r="G29" s="3" t="inlineStr"/>
-      <c r="H29" s="3" t="inlineStr"/>
-      <c r="I29" s="3" t="inlineStr"/>
-      <c r="J29" s="3" t="inlineStr"/>
-      <c r="K29" s="3" t="inlineStr"/>
-      <c r="L29" s="3" t="inlineStr"/>
-      <c r="M29" s="3" t="n">
+      <c r="C29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
+      <c r="J29" s="2" t="inlineStr"/>
+      <c r="K29" s="2" t="inlineStr"/>
+      <c r="L29" s="2" t="inlineStr"/>
+      <c r="M29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="inlineStr"/>
-      <c r="P29" s="3" t="inlineStr"/>
-      <c r="Q29" s="3" t="inlineStr">
+      <c r="N29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr"/>
+      <c r="Q29" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R29" s="3" t="inlineStr"/>
+      <c r="R29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>CHEBI:28217</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>acrylonitrile</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr"/>
-      <c r="E30" s="3" t="inlineStr"/>
-      <c r="F30" s="3" t="inlineStr"/>
-      <c r="G30" s="3" t="inlineStr"/>
-      <c r="H30" s="3" t="inlineStr"/>
-      <c r="I30" s="3" t="inlineStr"/>
-      <c r="J30" s="3" t="inlineStr"/>
-      <c r="K30" s="3" t="inlineStr"/>
-      <c r="L30" s="3" t="inlineStr"/>
-      <c r="M30" s="3" t="n">
+      <c r="C30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3" t="inlineStr"/>
-      <c r="P30" s="3" t="inlineStr"/>
-      <c r="Q30" s="3" t="inlineStr">
+      <c r="N30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr"/>
+      <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R30" s="3" t="inlineStr"/>
+      <c r="R30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -2035,52 +2029,52 @@
       <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
         <is>
           <t>CHEBI:23888</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>drug</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>A substance which when absorbed into a living organism may modify one or more of its functions. The term is generally accepted for a substance taken for a therapeutic purpose, but is also commonly used for abused substances.</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr">
+      <c r="D49" s="2" t="inlineStr">
         <is>
           <t>pharmaceutical</t>
         </is>
       </c>
-      <c r="E49" s="3" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>Role</t>
         </is>
       </c>
-      <c r="F49" s="3" t="inlineStr"/>
-      <c r="G49" s="3" t="inlineStr"/>
-      <c r="H49" s="3" t="inlineStr"/>
-      <c r="I49" s="3" t="inlineStr"/>
-      <c r="J49" s="3" t="inlineStr"/>
-      <c r="K49" s="3" t="inlineStr"/>
-      <c r="L49" s="3" t="inlineStr"/>
-      <c r="M49" s="3" t="n">
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
+      <c r="M49" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N49" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="inlineStr"/>
-      <c r="P49" s="3" t="inlineStr"/>
-      <c r="Q49" s="3" t="inlineStr">
+      <c r="N49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2" t="inlineStr"/>
+      <c r="P49" s="2" t="inlineStr"/>
+      <c r="Q49" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R49" s="3" t="inlineStr"/>
+      <c r="R49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7215,40 +7209,40 @@
       <c r="R209" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="inlineStr">
+      <c r="A210" s="2" t="inlineStr">
         <is>
           <t>CHEBI:25212</t>
         </is>
       </c>
-      <c r="B210" s="3" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>metabolite</t>
         </is>
       </c>
-      <c r="C210" s="3" t="inlineStr"/>
-      <c r="D210" s="3" t="inlineStr"/>
-      <c r="E210" s="3" t="inlineStr"/>
-      <c r="F210" s="3" t="inlineStr"/>
-      <c r="G210" s="3" t="inlineStr"/>
-      <c r="H210" s="3" t="inlineStr"/>
-      <c r="I210" s="3" t="inlineStr"/>
-      <c r="J210" s="3" t="inlineStr"/>
-      <c r="K210" s="3" t="inlineStr"/>
-      <c r="L210" s="3" t="inlineStr"/>
-      <c r="M210" s="3" t="n">
+      <c r="C210" s="2" t="inlineStr"/>
+      <c r="D210" s="2" t="inlineStr"/>
+      <c r="E210" s="2" t="inlineStr"/>
+      <c r="F210" s="2" t="inlineStr"/>
+      <c r="G210" s="2" t="inlineStr"/>
+      <c r="H210" s="2" t="inlineStr"/>
+      <c r="I210" s="2" t="inlineStr"/>
+      <c r="J210" s="2" t="inlineStr"/>
+      <c r="K210" s="2" t="inlineStr"/>
+      <c r="L210" s="2" t="inlineStr"/>
+      <c r="M210" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N210" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O210" s="3" t="inlineStr"/>
-      <c r="P210" s="3" t="inlineStr"/>
-      <c r="Q210" s="3" t="inlineStr">
+      <c r="N210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" s="2" t="inlineStr"/>
+      <c r="P210" s="2" t="inlineStr"/>
+      <c r="Q210" s="2" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="R210" s="3" t="inlineStr"/>
+      <c r="R210" s="2" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr"/>

--- a/inputs/AddictO_Not_yet_classified_Defs.xlsx
+++ b/inputs/AddictO_Not_yet_classified_Defs.xlsx
@@ -1381,40 +1381,44 @@
       <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>CHEBI:15368</t>
         </is>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>acrolein</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="2" t="inlineStr"/>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="n">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
-      <c r="N29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr"/>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">

--- a/inputs/AddictO_Not_yet_classified_Defs.xlsx
+++ b/inputs/AddictO_Not_yet_classified_Defs.xlsx
@@ -1480,8 +1480,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">

--- a/inputs/AddictO_Not_yet_classified_Defs.xlsx
+++ b/inputs/AddictO_Not_yet_classified_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffffff"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,11 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -362,7 +356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S371"/>
+  <dimension ref="A1:S370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3044,51 +3038,43 @@
       <c r="S77" s="2" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000807</t>
-        </is>
-      </c>
-      <c r="B78" s="3" t="inlineStr">
-        <is>
-          <t>exclusive e-cigarette user</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr"/>
-      <c r="D78" s="3" t="inlineStr"/>
-      <c r="E78" s="3" t="inlineStr"/>
-      <c r="F78" s="3" t="inlineStr"/>
-      <c r="G78" s="3" t="inlineStr"/>
-      <c r="H78" s="3" t="inlineStr"/>
-      <c r="I78" s="3" t="inlineStr"/>
-      <c r="J78" s="3" t="inlineStr"/>
-      <c r="K78" s="3" t="inlineStr"/>
-      <c r="L78" s="3" t="inlineStr"/>
-      <c r="M78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" s="3" t="inlineStr"/>
-      <c r="P78" s="3" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
-      <c r="Q78" s="3" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="R78" s="3" t="inlineStr"/>
-      <c r="S78" s="3" t="inlineStr"/>
+      <c r="A78" s="2" t="inlineStr"/>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>exhaled carbon monoxide level</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr"/>
+      <c r="D78" s="2" t="inlineStr"/>
+      <c r="E78" s="2" t="inlineStr"/>
+      <c r="F78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr"/>
+      <c r="H78" s="2" t="inlineStr"/>
+      <c r="I78" s="2" t="inlineStr"/>
+      <c r="J78" s="2" t="inlineStr"/>
+      <c r="K78" s="2" t="inlineStr"/>
+      <c r="L78" s="2" t="inlineStr"/>
+      <c r="M78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="2" t="inlineStr"/>
+      <c r="P78" s="2" t="inlineStr"/>
+      <c r="Q78" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R78" s="2" t="inlineStr"/>
+      <c r="S78" s="2" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr"/>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>exhaled carbon monoxide level</t>
+          <t>expected blood alcohol concentration of ≤ 0.05%</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr"/>
@@ -3121,7 +3107,7 @@
       <c r="A80" s="2" t="inlineStr"/>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>expected blood alcohol concentration of ≤ 0.05%</t>
+          <t>experience of past year discrimination</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr"/>
@@ -3154,7 +3140,7 @@
       <c r="A81" s="2" t="inlineStr"/>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>experience of past year discrimination</t>
+          <t>expired-air carbon monoxide verification</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr"/>
@@ -3187,7 +3173,7 @@
       <c r="A82" s="2" t="inlineStr"/>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>expired-air carbon monoxide verification</t>
+          <t>exposure to survival services study</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr"/>
@@ -3220,7 +3206,7 @@
       <c r="A83" s="2" t="inlineStr"/>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>exposure to survival services study</t>
+          <t>extended cox model</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr"/>
@@ -3253,7 +3239,7 @@
       <c r="A84" s="2" t="inlineStr"/>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>extended cox model</t>
+          <t>extended range polysubstance user</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr"/>
@@ -3286,7 +3272,7 @@
       <c r="A85" s="2" t="inlineStr"/>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>extended range polysubstance user</t>
+          <t>extended-release injection naltrexone (XR-NTX), extended blockade of opioid receptors</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr"/>
@@ -3319,7 +3305,7 @@
       <c r="A86" s="2" t="inlineStr"/>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>extended-release injection naltrexone (XR-NTX), extended blockade of opioid receptors</t>
+          <t>fDA-approved smoking cessation medication</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr"/>
@@ -3352,7 +3338,7 @@
       <c r="A87" s="2" t="inlineStr"/>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>fDA-approved smoking cessation medication</t>
+          <t>facilitator</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr"/>
@@ -3385,7 +3371,7 @@
       <c r="A88" s="2" t="inlineStr"/>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>facilitator</t>
+          <t>facilitator characteristic</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr"/>
@@ -3418,7 +3404,7 @@
       <c r="A89" s="2" t="inlineStr"/>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>facilitator characteristic</t>
+          <t>fail-safe N</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr"/>
@@ -3451,7 +3437,7 @@
       <c r="A90" s="2" t="inlineStr"/>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>fail-safe N</t>
+          <t>family plus friend smoking</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr"/>
@@ -3484,7 +3470,7 @@
       <c r="A91" s="2" t="inlineStr"/>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>family plus friend smoking</t>
+          <t>financial incentive</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr"/>
@@ -3517,7 +3503,7 @@
       <c r="A92" s="2" t="inlineStr"/>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>financial incentive</t>
+          <t>financial incentive for alcohol prevention</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr"/>
@@ -3550,7 +3536,7 @@
       <c r="A93" s="2" t="inlineStr"/>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>financial incentive for alcohol prevention</t>
+          <t>fixed-code field</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr"/>
@@ -3583,7 +3569,7 @@
       <c r="A94" s="2" t="inlineStr"/>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>fixed-code field</t>
+          <t>form 90 instrument</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr"/>
@@ -3616,7 +3602,7 @@
       <c r="A95" s="2" t="inlineStr"/>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>form 90 instrument</t>
+          <t>free-text field</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr"/>
@@ -3649,7 +3635,7 @@
       <c r="A96" s="2" t="inlineStr"/>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>free-text field</t>
+          <t>frequent drinker</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr"/>
@@ -3682,7 +3668,7 @@
       <c r="A97" s="2" t="inlineStr"/>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>frequent drinker</t>
+          <t>function of treatment</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr"/>
@@ -3715,7 +3701,7 @@
       <c r="A98" s="2" t="inlineStr"/>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>function of treatment</t>
+          <t>gene-environment interaction</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr"/>
@@ -3748,7 +3734,7 @@
       <c r="A99" s="2" t="inlineStr"/>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>gene-environment interaction</t>
+          <t>general practitioner brief cessation advice</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr"/>
@@ -3781,7 +3767,7 @@
       <c r="A100" s="2" t="inlineStr"/>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>general practitioner brief cessation advice</t>
+          <t>genetic correlation</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr"/>
@@ -3814,7 +3800,7 @@
       <c r="A101" s="2" t="inlineStr"/>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>genetic correlation</t>
+          <t>genetic covariance, environmental covariance</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr"/>
@@ -3847,7 +3833,7 @@
       <c r="A102" s="2" t="inlineStr"/>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>genetic covariance, environmental covariance</t>
+          <t>genetic etiology</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr"/>
@@ -3880,7 +3866,7 @@
       <c r="A103" s="2" t="inlineStr"/>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>genetic etiology</t>
+          <t>genome-wide polygenic score</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr"/>
@@ -3913,7 +3899,7 @@
       <c r="A104" s="2" t="inlineStr"/>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>genome-wide polygenic score</t>
+          <t>gradual cessation</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr"/>
@@ -3946,7 +3932,7 @@
       <c r="A105" s="2" t="inlineStr"/>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>gradual cessation</t>
+          <t>growth mixture modeling</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr"/>
@@ -3979,7 +3965,7 @@
       <c r="A106" s="2" t="inlineStr"/>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>growth mixture modeling</t>
+          <t>harm relating to pharmaceutical opioids</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr"/>
@@ -4012,7 +3998,7 @@
       <c r="A107" s="2" t="inlineStr"/>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>harm relating to pharmaceutical opioids</t>
+          <t>hazardous alcohol use</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr"/>
@@ -4045,7 +4031,7 @@
       <c r="A108" s="2" t="inlineStr"/>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>hazardous alcohol use</t>
+          <t>health care use</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr"/>
@@ -4078,7 +4064,7 @@
       <c r="A109" s="2" t="inlineStr"/>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>health care use</t>
+          <t>heavier drinker</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr"/>
@@ -4111,7 +4097,7 @@
       <c r="A110" s="2" t="inlineStr"/>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>heavier drinker</t>
+          <t>heavy alcohol use</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr"/>
@@ -4144,7 +4130,7 @@
       <c r="A111" s="2" t="inlineStr"/>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>heavy alcohol use</t>
+          <t>hepatitis C burden</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr"/>
@@ -4177,7 +4163,7 @@
       <c r="A112" s="2" t="inlineStr"/>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>hepatitis C burden</t>
+          <t>hepatitis C epidemic</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr"/>
@@ -4210,7 +4196,7 @@
       <c r="A113" s="2" t="inlineStr"/>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>hepatitis C epidemic</t>
+          <t>hepatitis C infection</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr"/>
@@ -4243,7 +4229,7 @@
       <c r="A114" s="2" t="inlineStr"/>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>hepatitis C infection</t>
+          <t>hepatitis C screening</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr"/>
@@ -4276,7 +4262,7 @@
       <c r="A115" s="2" t="inlineStr"/>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>hepatitis C screening</t>
+          <t>hepatitis C transmission and disease progression model</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr"/>
@@ -4309,7 +4295,7 @@
       <c r="A116" s="2" t="inlineStr"/>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>hepatitis C transmission and disease progression model</t>
+          <t>heroin morbidity</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr"/>
@@ -4342,7 +4328,7 @@
       <c r="A117" s="2" t="inlineStr"/>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>heroin morbidity</t>
+          <t>heroin use day</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr"/>
@@ -4375,7 +4361,7 @@
       <c r="A118" s="2" t="inlineStr"/>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>heroin use day</t>
+          <t>heroin-related emergency department attendance</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr"/>
@@ -4408,7 +4394,7 @@
       <c r="A119" s="2" t="inlineStr"/>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>heroin-related emergency department attendance</t>
+          <t>heroin-related harm</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr"/>
@@ -4441,7 +4427,7 @@
       <c r="A120" s="2" t="inlineStr"/>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>heroin-related harm</t>
+          <t>heterogeneous result</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr"/>
@@ -4474,7 +4460,7 @@
       <c r="A121" s="2" t="inlineStr"/>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>heterogeneous result</t>
+          <t>high frequency injection with late decrease</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr"/>
@@ -4507,7 +4493,7 @@
       <c r="A122" s="2" t="inlineStr"/>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>high frequency injection with late decrease</t>
+          <t>high frequency injector</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr"/>
@@ -4540,7 +4526,7 @@
       <c r="A123" s="2" t="inlineStr"/>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>high frequency injector</t>
+          <t>high risk drinking</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr"/>
@@ -4573,7 +4559,7 @@
       <c r="A124" s="2" t="inlineStr"/>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>high risk drinking</t>
+          <t>high-income smoker</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr"/>
@@ -4606,7 +4592,7 @@
       <c r="A125" s="2" t="inlineStr"/>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>high-income smoker</t>
+          <t>history of use</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr"/>
@@ -4639,7 +4625,7 @@
       <c r="A126" s="2" t="inlineStr"/>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>history of use</t>
+          <t>home air quality</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr"/>
@@ -4672,7 +4658,7 @@
       <c r="A127" s="2" t="inlineStr"/>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>home air quality</t>
+          <t>home support</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr"/>
@@ -4705,7 +4691,7 @@
       <c r="A128" s="2" t="inlineStr"/>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>home support</t>
+          <t>home visit</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr"/>
@@ -4738,7 +4724,7 @@
       <c r="A129" s="2" t="inlineStr"/>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>home visit</t>
+          <t>homeless veteran</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr"/>
@@ -4771,7 +4757,7 @@
       <c r="A130" s="2" t="inlineStr"/>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>homeless veteran</t>
+          <t>illicit drug dependence</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr"/>
@@ -4804,7 +4790,7 @@
       <c r="A131" s="2" t="inlineStr"/>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>illicit drug dependence</t>
+          <t>illicit opioid use</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr"/>
@@ -4837,7 +4823,7 @@
       <c r="A132" s="2" t="inlineStr"/>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>illicit opioid use</t>
+          <t>illicit opioid use rate</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr"/>
@@ -4870,7 +4856,7 @@
       <c r="A133" s="2" t="inlineStr"/>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>illicit opioid use rate</t>
+          <t>illicit substance</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr"/>
@@ -4903,7 +4889,7 @@
       <c r="A134" s="2" t="inlineStr"/>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>illicit substance</t>
+          <t>illicit substance use quantity-frequency</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr"/>
@@ -4936,7 +4922,7 @@
       <c r="A135" s="2" t="inlineStr"/>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>illicit substance use quantity-frequency</t>
+          <t>illicit substance use severity</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr"/>
@@ -4969,7 +4955,7 @@
       <c r="A136" s="2" t="inlineStr"/>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>illicit substance use severity</t>
+          <t>in-person psychosocial substance use disorder treatment</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr"/>
@@ -5002,7 +4988,7 @@
       <c r="A137" s="2" t="inlineStr"/>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>in-person psychosocial substance use disorder treatment</t>
+          <t>incidence of fracture</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr"/>
@@ -5035,7 +5021,7 @@
       <c r="A138" s="2" t="inlineStr"/>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>incidence of fracture</t>
+          <t>income level</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr"/>
@@ -5068,7 +5054,7 @@
       <c r="A139" s="2" t="inlineStr"/>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>income level</t>
+          <t>incremental cost-effectiveness ratio</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr"/>
@@ -5101,7 +5087,7 @@
       <c r="A140" s="2" t="inlineStr"/>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>incremental cost-effectiveness ratio</t>
+          <t>incremental cost-effectiveness ratio (ICER)</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr"/>
@@ -5134,7 +5120,7 @@
       <c r="A141" s="2" t="inlineStr"/>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>incremental cost-effectiveness ratio (ICER)</t>
+          <t>index of harm</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr"/>
@@ -5167,7 +5153,7 @@
       <c r="A142" s="2" t="inlineStr"/>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>index of harm</t>
+          <t>index year</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr"/>
@@ -5200,7 +5186,7 @@
       <c r="A143" s="2" t="inlineStr"/>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>index year</t>
+          <t>individually-randomised parallel group trial</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr"/>
@@ -5233,7 +5219,7 @@
       <c r="A144" s="2" t="inlineStr"/>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>individually-randomised parallel group trial</t>
+          <t>inhibitory control</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr"/>
@@ -5266,7 +5252,7 @@
       <c r="A145" s="2" t="inlineStr"/>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>inhibitory control</t>
+          <t>initial prescription</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr"/>
@@ -5299,7 +5285,7 @@
       <c r="A146" s="2" t="inlineStr"/>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>initial prescription</t>
+          <t>injection drug use</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr"/>
@@ -5332,7 +5318,7 @@
       <c r="A147" s="2" t="inlineStr"/>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>injection drug use</t>
+          <t>injection drug use pattern</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr"/>
@@ -5365,7 +5351,7 @@
       <c r="A148" s="2" t="inlineStr"/>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>injection drug use pattern</t>
+          <t>injection drug use trajectory</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr"/>
@@ -5398,7 +5384,7 @@
       <c r="A149" s="2" t="inlineStr"/>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>injection drug use trajectory</t>
+          <t>inpatient detoxification</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr"/>
@@ -5431,7 +5417,7 @@
       <c r="A150" s="2" t="inlineStr"/>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>inpatient detoxification</t>
+          <t>inpatient detoxification programme</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr"/>
@@ -5464,7 +5450,7 @@
       <c r="A151" s="2" t="inlineStr"/>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>inpatient detoxification programme</t>
+          <t>inpatient detoxification protocol</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr"/>
@@ -5497,7 +5483,7 @@
       <c r="A152" s="2" t="inlineStr"/>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>inpatient detoxification protocol</t>
+          <t>inpatient dose stabilization</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr"/>
@@ -5530,7 +5516,7 @@
       <c r="A153" s="2" t="inlineStr"/>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>inpatient dose stabilization</t>
+          <t>inpatient managed withdrawal program</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr"/>
@@ -5563,7 +5549,7 @@
       <c r="A154" s="2" t="inlineStr"/>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>inpatient managed withdrawal program</t>
+          <t>insufficient number of studies</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr"/>
@@ -5596,7 +5582,7 @@
       <c r="A155" s="2" t="inlineStr"/>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>insufficient number of studies</t>
+          <t>insurance coverage</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr"/>
@@ -5629,7 +5615,7 @@
       <c r="A156" s="2" t="inlineStr"/>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>insurance coverage</t>
+          <t>intensity</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr"/>
@@ -5662,7 +5648,7 @@
       <c r="A157" s="2" t="inlineStr"/>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>intensity</t>
+          <t>intensity [unconstrained consumption]</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr"/>
@@ -5695,7 +5681,7 @@
       <c r="A158" s="2" t="inlineStr"/>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>intensity [unconstrained consumption]</t>
+          <t>international Classification of Diseases, 9th revision, Clinical Modification</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr"/>
@@ -5728,7 +5714,7 @@
       <c r="A159" s="2" t="inlineStr"/>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>international Classification of Diseases, 9th revision, Clinical Modification</t>
+          <t>intervention scenario</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr"/>
@@ -5761,7 +5747,7 @@
       <c r="A160" s="2" t="inlineStr"/>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>intervention scenario</t>
+          <t>interviewer-administered questionnaire</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr"/>
@@ -5794,7 +5780,7 @@
       <c r="A161" s="2" t="inlineStr"/>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>interviewer-administered questionnaire</t>
+          <t>intoxication frequency</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr"/>
@@ -5827,7 +5813,7 @@
       <c r="A162" s="2" t="inlineStr"/>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>intoxication frequency</t>
+          <t>involvement in a romantic partnership</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr"/>
@@ -5860,7 +5846,7 @@
       <c r="A163" s="2" t="inlineStr"/>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>involvement in a romantic partnership</t>
+          <t>joint trajectory</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr"/>
@@ -5893,7 +5879,7 @@
       <c r="A164" s="2" t="inlineStr"/>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>joint trajectory</t>
+          <t>language background</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr"/>
@@ -5926,7 +5912,7 @@
       <c r="A165" s="2" t="inlineStr"/>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>language background</t>
+          <t>latency to reach for a cigarette</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr"/>
@@ -5959,7 +5945,7 @@
       <c r="A166" s="2" t="inlineStr"/>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>latency to reach for a cigarette</t>
+          <t>latent class analysis</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr"/>
@@ -5992,7 +5978,7 @@
       <c r="A167" s="2" t="inlineStr"/>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>latent class analysis</t>
+          <t>latent growth curve modeling</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr"/>
@@ -6025,7 +6011,7 @@
       <c r="A168" s="2" t="inlineStr"/>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>latent growth curve modeling</t>
+          <t>licit substance</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr"/>
@@ -6058,7 +6044,7 @@
       <c r="A169" s="2" t="inlineStr"/>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>licit substance</t>
+          <t>life course</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr"/>
@@ -6091,7 +6077,7 @@
       <c r="A170" s="2" t="inlineStr"/>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>life course</t>
+          <t>lifetime NMUA</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr"/>
@@ -6124,7 +6110,7 @@
       <c r="A171" s="2" t="inlineStr"/>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>lifetime NMUA</t>
+          <t>lifetime cannabis use</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr"/>
@@ -6157,7 +6143,7 @@
       <c r="A172" s="2" t="inlineStr"/>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>lifetime cannabis use</t>
+          <t>lifetime cost</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr"/>
@@ -6190,7 +6176,7 @@
       <c r="A173" s="2" t="inlineStr"/>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>lifetime cost</t>
+          <t>lifetime diagnosis of alcohol use disorder</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr"/>
@@ -6223,7 +6209,7 @@
       <c r="A174" s="2" t="inlineStr"/>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>lifetime diagnosis of alcohol use disorder</t>
+          <t>lifetime nicotine use</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr"/>
@@ -6256,7 +6242,7 @@
       <c r="A175" s="2" t="inlineStr"/>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>lifetime nicotine use</t>
+          <t>lifetime opioid use</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr"/>
@@ -6289,7 +6275,7 @@
       <c r="A176" s="2" t="inlineStr"/>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>lifetime opioid use</t>
+          <t>lifetime stimulant use</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr"/>
@@ -6322,7 +6308,7 @@
       <c r="A177" s="2" t="inlineStr"/>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>lifetime stimulant use</t>
+          <t>light/moderate cigarette dependence</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr"/>
@@ -6355,7 +6341,7 @@
       <c r="A178" s="2" t="inlineStr"/>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>light/moderate cigarette dependence</t>
+          <t>lighter drinker</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr"/>
@@ -6388,7 +6374,7 @@
       <c r="A179" s="2" t="inlineStr"/>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>lighter drinker</t>
+          <t>linear mixed-effects model</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr"/>
@@ -6421,7 +6407,7 @@
       <c r="A180" s="2" t="inlineStr"/>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>linear mixed-effects model</t>
+          <t>linkage to office-based buprenorphine</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr"/>
@@ -6454,7 +6440,7 @@
       <c r="A181" s="2" t="inlineStr"/>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>linkage to office-based buprenorphine</t>
+          <t>liquid chromatography tandem mass spectrometry</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr"/>
@@ -6487,7 +6473,7 @@
       <c r="A182" s="2" t="inlineStr"/>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>liquid chromatography tandem mass spectrometry</t>
+          <t>longest duration abstinent</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr"/>
@@ -6520,7 +6506,7 @@
       <c r="A183" s="2" t="inlineStr"/>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>longest duration abstinent</t>
+          <t>longitudinal analysis</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr"/>
@@ -6553,7 +6539,7 @@
       <c r="A184" s="2" t="inlineStr"/>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>longitudinal analysis</t>
+          <t>longitudinal trajectory</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr"/>
@@ -6586,7 +6572,7 @@
       <c r="A185" s="2" t="inlineStr"/>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>longitudinal trajectory</t>
+          <t>low-income smoker</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr"/>
@@ -6619,7 +6605,7 @@
       <c r="A186" s="2" t="inlineStr"/>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>low-income smoker</t>
+          <t>mainly tobacco, alcohol and cannabis user</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr"/>
@@ -6652,7 +6638,7 @@
       <c r="A187" s="2" t="inlineStr"/>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>mainly tobacco, alcohol and cannabis user</t>
+          <t>maintenance buprenorphine</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr"/>
@@ -6685,7 +6671,7 @@
       <c r="A188" s="2" t="inlineStr"/>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>maintenance buprenorphine</t>
+          <t>maintenance drug for the treatment of opioid dependence</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr"/>
@@ -6718,7 +6704,7 @@
       <c r="A189" s="2" t="inlineStr"/>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>maintenance drug for the treatment of opioid dependence</t>
+          <t>major metropolitan maternity hospital</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr"/>
@@ -6751,7 +6737,7 @@
       <c r="A190" s="2" t="inlineStr"/>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>major metropolitan maternity hospital</t>
+          <t>major organ pathology</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr"/>
@@ -6784,7 +6770,7 @@
       <c r="A191" s="2" t="inlineStr"/>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>major organ pathology</t>
+          <t>manualized session</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr"/>
@@ -6817,7 +6803,7 @@
       <c r="A192" s="2" t="inlineStr"/>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>manualized session</t>
+          <t>maternal characteristic</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr"/>
@@ -6850,7 +6836,7 @@
       <c r="A193" s="2" t="inlineStr"/>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>maternal characteristic</t>
+          <t>mcNemar's test</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr"/>
@@ -6883,7 +6869,7 @@
       <c r="A194" s="2" t="inlineStr"/>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>mcNemar's test</t>
+          <t>mechanism of action</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr"/>
@@ -6916,7 +6902,7 @@
       <c r="A195" s="2" t="inlineStr"/>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>mechanism of action</t>
+          <t>medicaid expansion</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr"/>
@@ -6949,7 +6935,7 @@
       <c r="A196" s="2" t="inlineStr"/>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>medicaid expansion</t>
+          <t>medicaid insurance</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr"/>
@@ -6982,7 +6968,7 @@
       <c r="A197" s="2" t="inlineStr"/>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>medicaid insurance</t>
+          <t>medicaid-reimbursed opioid</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr"/>
@@ -7015,7 +7001,7 @@
       <c r="A198" s="2" t="inlineStr"/>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>medicaid-reimbursed opioid</t>
+          <t>medical diagnosis</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr"/>
@@ -7048,7 +7034,7 @@
       <c r="A199" s="2" t="inlineStr"/>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>medical diagnosis</t>
+          <t>medication-assisted treatment (MAT)</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr"/>
@@ -7081,7 +7067,7 @@
       <c r="A200" s="2" t="inlineStr"/>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>medication-assisted treatment (MAT)</t>
+          <t>medium-to-large effect size association</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr"/>
@@ -7114,7 +7100,7 @@
       <c r="A201" s="2" t="inlineStr"/>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>medium-to-large effect size association</t>
+          <t>men who have sex with men (MSM)</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr"/>
@@ -7147,7 +7133,7 @@
       <c r="A202" s="2" t="inlineStr"/>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>men who have sex with men (MSM)</t>
+          <t>meta-regression</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr"/>
@@ -7177,80 +7163,80 @@
       <c r="S202" s="2" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="inlineStr"/>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>meta-regression</t>
-        </is>
-      </c>
-      <c r="C203" s="2" t="inlineStr"/>
-      <c r="D203" s="2" t="inlineStr"/>
-      <c r="E203" s="2" t="inlineStr"/>
-      <c r="F203" s="2" t="inlineStr"/>
-      <c r="G203" s="2" t="inlineStr"/>
-      <c r="H203" s="2" t="inlineStr"/>
-      <c r="I203" s="2" t="inlineStr"/>
-      <c r="J203" s="2" t="inlineStr"/>
-      <c r="K203" s="2" t="inlineStr"/>
-      <c r="L203" s="2" t="inlineStr"/>
-      <c r="M203" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N203" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O203" s="2" t="inlineStr"/>
-      <c r="P203" s="2" t="inlineStr"/>
-      <c r="Q203" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R203" s="2" t="inlineStr"/>
-      <c r="S203" s="2" t="inlineStr"/>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>CHEBI:25212</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>metabolite</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>CHEBI:25212</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>metabolite</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="n">
-        <v>0</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="inlineStr"/>
+      <c r="A204" s="2" t="inlineStr"/>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>methamphetamine use disorder</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr"/>
+      <c r="D204" s="2" t="inlineStr"/>
+      <c r="E204" s="2" t="inlineStr"/>
+      <c r="F204" s="2" t="inlineStr"/>
+      <c r="G204" s="2" t="inlineStr"/>
+      <c r="H204" s="2" t="inlineStr"/>
+      <c r="I204" s="2" t="inlineStr"/>
+      <c r="J204" s="2" t="inlineStr"/>
+      <c r="K204" s="2" t="inlineStr"/>
+      <c r="L204" s="2" t="inlineStr"/>
+      <c r="M204" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="2" t="inlineStr"/>
+      <c r="P204" s="2" t="inlineStr"/>
+      <c r="Q204" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R204" s="2" t="inlineStr"/>
+      <c r="S204" s="2" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr"/>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>methamphetamine use disorder</t>
+          <t>methylphenidate</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr"/>
@@ -7283,7 +7269,7 @@
       <c r="A206" s="2" t="inlineStr"/>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>methylphenidate</t>
+          <t>middle-income smoker</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr"/>
@@ -7316,7 +7302,7 @@
       <c r="A207" s="2" t="inlineStr"/>
       <c r="B207" s="2" t="inlineStr">
         <is>
-          <t>middle-income smoker</t>
+          <t>minimal user</t>
         </is>
       </c>
       <c r="C207" s="2" t="inlineStr"/>
@@ -7349,7 +7335,7 @@
       <c r="A208" s="2" t="inlineStr"/>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>minimal user</t>
+          <t>mixed repeated measures between-groups factorial design</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr"/>
@@ -7382,7 +7368,7 @@
       <c r="A209" s="2" t="inlineStr"/>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>mixed repeated measures between-groups factorial design</t>
+          <t>mixed-effect regression model</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr"/>
@@ -7415,7 +7401,7 @@
       <c r="A210" s="2" t="inlineStr"/>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>mixed-effect regression model</t>
+          <t>mobile telephone delivered contingency management intervention to promote abstinence</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr"/>
@@ -7448,7 +7434,7 @@
       <c r="A211" s="2" t="inlineStr"/>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>mobile telephone delivered contingency management intervention to promote abstinence</t>
+          <t>mobile telephone-based system</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr"/>
@@ -7481,7 +7467,7 @@
       <c r="A212" s="2" t="inlineStr"/>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>mobile telephone-based system</t>
+          <t>moderating effect</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr"/>
@@ -7514,7 +7500,7 @@
       <c r="A213" s="2" t="inlineStr"/>
       <c r="B213" s="2" t="inlineStr">
         <is>
-          <t>moderating effect</t>
+          <t>moderation test</t>
         </is>
       </c>
       <c r="C213" s="2" t="inlineStr"/>
@@ -7547,7 +7533,7 @@
       <c r="A214" s="2" t="inlineStr"/>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>moderation test</t>
+          <t>money spent to access a cigarette</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr"/>
@@ -7580,7 +7566,7 @@
       <c r="A215" s="2" t="inlineStr"/>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>money spent to access a cigarette</t>
+          <t>monthly extended-release injection naltrexone</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr"/>
@@ -7613,7 +7599,7 @@
       <c r="A216" s="2" t="inlineStr"/>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>monthly extended-release injection naltrexone</t>
+          <t>morphine concentration in the presence and absence of naltrexone</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr"/>
@@ -7646,7 +7632,7 @@
       <c r="A217" s="2" t="inlineStr"/>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>morphine concentration in the presence and absence of naltrexone</t>
+          <t>motivation to change</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr"/>
@@ -7679,7 +7665,7 @@
       <c r="A218" s="2" t="inlineStr"/>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>motivation to change</t>
+          <t>motivation to smoke</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr"/>
@@ -7712,7 +7698,7 @@
       <c r="A219" s="2" t="inlineStr"/>
       <c r="B219" s="2" t="inlineStr">
         <is>
-          <t>motivation to smoke</t>
+          <t>multiple convictions for driving while under the influence of alcohol (MDUI)</t>
         </is>
       </c>
       <c r="C219" s="2" t="inlineStr"/>
@@ -7745,7 +7731,7 @@
       <c r="A220" s="2" t="inlineStr"/>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>multiple convictions for driving while under the influence of alcohol (MDUI)</t>
+          <t>multivariate analysis</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr"/>
@@ -7778,7 +7764,7 @@
       <c r="A221" s="2" t="inlineStr"/>
       <c r="B221" s="2" t="inlineStr">
         <is>
-          <t>multivariate analysis</t>
+          <t>municipal alcohol treatment clinic</t>
         </is>
       </c>
       <c r="C221" s="2" t="inlineStr"/>
@@ -7811,7 +7797,7 @@
       <c r="A222" s="2" t="inlineStr"/>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>municipal alcohol treatment clinic</t>
+          <t>nabilone</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr"/>
@@ -7844,7 +7830,7 @@
       <c r="A223" s="2" t="inlineStr"/>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>nabilone</t>
+          <t>nabiximol</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr"/>
@@ -7877,7 +7863,7 @@
       <c r="A224" s="2" t="inlineStr"/>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>nabiximol</t>
+          <t>naltrexone concentration</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr"/>
@@ -7910,7 +7896,7 @@
       <c r="A225" s="2" t="inlineStr"/>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>naltrexone concentration</t>
+          <t>naltrexone treatment history</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr"/>
@@ -7943,7 +7929,7 @@
       <c r="A226" s="2" t="inlineStr"/>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>naltrexone treatment history</t>
+          <t>narrative synthesis</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr"/>
@@ -7976,7 +7962,7 @@
       <c r="A227" s="2" t="inlineStr"/>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>narrative synthesis</t>
+          <t>national Coronial Information System</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr"/>
@@ -8009,7 +7995,7 @@
       <c r="A228" s="2" t="inlineStr"/>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>national Coronial Information System</t>
+          <t>national equity analysis</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr"/>
@@ -8042,7 +8028,7 @@
       <c r="A229" s="2" t="inlineStr"/>
       <c r="B229" s="2" t="inlineStr">
         <is>
-          <t>national equity analysis</t>
+          <t>national statistic</t>
         </is>
       </c>
       <c r="C229" s="2" t="inlineStr"/>
@@ -8075,7 +8061,7 @@
       <c r="A230" s="2" t="inlineStr"/>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>national statistic</t>
+          <t>neglect</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr"/>
@@ -8108,7 +8094,7 @@
       <c r="A231" s="2" t="inlineStr"/>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>neglect</t>
+          <t>never user</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr"/>
@@ -8141,7 +8127,7 @@
       <c r="A232" s="2" t="inlineStr"/>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>never user</t>
+          <t>newly-abstinent smoker</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr"/>
@@ -8174,7 +8160,7 @@
       <c r="A233" s="2" t="inlineStr"/>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>newly-abstinent smoker</t>
+          <t>newly-registered patient</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr"/>
@@ -8207,7 +8193,7 @@
       <c r="A234" s="2" t="inlineStr"/>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>newly-registered patient</t>
+          <t>nicotine content of e-liquid</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr"/>
@@ -8240,7 +8226,7 @@
       <c r="A235" s="2" t="inlineStr"/>
       <c r="B235" s="2" t="inlineStr">
         <is>
-          <t>nicotine content of e-liquid</t>
+          <t>non-linear growth curve modeling</t>
         </is>
       </c>
       <c r="C235" s="2" t="inlineStr"/>
@@ -8273,7 +8259,7 @@
       <c r="A236" s="2" t="inlineStr"/>
       <c r="B236" s="2" t="inlineStr">
         <is>
-          <t>non-linear growth curve modeling</t>
+          <t>non-medical use of over-the-counter or prescribed analgesics (NMUA)</t>
         </is>
       </c>
       <c r="C236" s="2" t="inlineStr"/>
@@ -8306,7 +8292,7 @@
       <c r="A237" s="2" t="inlineStr"/>
       <c r="B237" s="2" t="inlineStr">
         <is>
-          <t>non-medical use of over-the-counter or prescribed analgesics (NMUA)</t>
+          <t>non-significant overall effect size</t>
         </is>
       </c>
       <c r="C237" s="2" t="inlineStr"/>
@@ -8339,7 +8325,7 @@
       <c r="A238" s="2" t="inlineStr"/>
       <c r="B238" s="2" t="inlineStr">
         <is>
-          <t>non-significant overall effect size</t>
+          <t>non-use of both product types</t>
         </is>
       </c>
       <c r="C238" s="2" t="inlineStr"/>
@@ -8372,7 +8358,7 @@
       <c r="A239" s="2" t="inlineStr"/>
       <c r="B239" s="2" t="inlineStr">
         <is>
-          <t>non-use of both product types</t>
+          <t>non-user</t>
         </is>
       </c>
       <c r="C239" s="2" t="inlineStr"/>
@@ -8405,7 +8391,7 @@
       <c r="A240" s="2" t="inlineStr"/>
       <c r="B240" s="2" t="inlineStr">
         <is>
-          <t>non-user</t>
+          <t>number of sex partners</t>
         </is>
       </c>
       <c r="C240" s="2" t="inlineStr"/>
@@ -8438,7 +8424,7 @@
       <c r="A241" s="2" t="inlineStr"/>
       <c r="B241" s="2" t="inlineStr">
         <is>
-          <t>number of sex partners</t>
+          <t>occurence of fracture</t>
         </is>
       </c>
       <c r="C241" s="2" t="inlineStr"/>
@@ -8471,7 +8457,7 @@
       <c r="A242" s="2" t="inlineStr"/>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>occurence of fracture</t>
+          <t>office-based buprenorphine</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr"/>
@@ -8504,7 +8490,7 @@
       <c r="A243" s="2" t="inlineStr"/>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>office-based buprenorphine</t>
+          <t>office-based medical practice</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr"/>
@@ -8537,7 +8523,7 @@
       <c r="A244" s="2" t="inlineStr"/>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>office-based medical practice</t>
+          <t>office-based outpatient physician visit</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr"/>
@@ -8570,7 +8556,7 @@
       <c r="A245" s="2" t="inlineStr"/>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>office-based outpatient physician visit</t>
+          <t>omax (maximum expenditure)</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr"/>
@@ -8603,7 +8589,7 @@
       <c r="A246" s="2" t="inlineStr"/>
       <c r="B246" s="2" t="inlineStr">
         <is>
-          <t>omax (maximum expenditure)</t>
+          <t>omax [maximum expenditure]</t>
         </is>
       </c>
       <c r="C246" s="2" t="inlineStr"/>
@@ -8636,7 +8622,7 @@
       <c r="A247" s="2" t="inlineStr"/>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>omax [maximum expenditure]</t>
+          <t>omnibus effect size</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr"/>
@@ -8669,7 +8655,7 @@
       <c r="A248" s="2" t="inlineStr"/>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>omnibus effect size</t>
+          <t>ongoing stimulant user</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr"/>
@@ -8702,7 +8688,7 @@
       <c r="A249" s="2" t="inlineStr"/>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>ongoing stimulant user</t>
+          <t>opioid antagonist</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr"/>
@@ -8735,7 +8721,7 @@
       <c r="A250" s="2" t="inlineStr"/>
       <c r="B250" s="2" t="inlineStr">
         <is>
-          <t>opioid antagonist</t>
+          <t>opioid overdose-related mortality rate</t>
         </is>
       </c>
       <c r="C250" s="2" t="inlineStr"/>
@@ -8768,7 +8754,7 @@
       <c r="A251" s="2" t="inlineStr"/>
       <c r="B251" s="2" t="inlineStr">
         <is>
-          <t>opioid overdose-related mortality rate</t>
+          <t>opioid receptor</t>
         </is>
       </c>
       <c r="C251" s="2" t="inlineStr"/>
@@ -8801,7 +8787,7 @@
       <c r="A252" s="2" t="inlineStr"/>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>opioid receptor</t>
+          <t>opioid toxicity, naltrexone implant, opioid detoxification, naltrexone blood concentration</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr"/>
@@ -8834,7 +8820,7 @@
       <c r="A253" s="2" t="inlineStr"/>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>opioid toxicity, naltrexone implant, opioid detoxification, naltrexone blood concentration</t>
+          <t>opioid use disorder diagnosis</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr"/>
@@ -8867,7 +8853,7 @@
       <c r="A254" s="2" t="inlineStr"/>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>opioid use disorder diagnosis</t>
+          <t>opioid withdrawal program</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr"/>
@@ -8900,7 +8886,7 @@
       <c r="A255" s="2" t="inlineStr"/>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>opioid withdrawal program</t>
+          <t>opioid withdrawal regime</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr"/>
@@ -8933,7 +8919,7 @@
       <c r="A256" s="2" t="inlineStr"/>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>opioid withdrawal regime</t>
+          <t>opioid-positive urine test</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr"/>
@@ -8966,7 +8952,7 @@
       <c r="A257" s="2" t="inlineStr"/>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>opioid-positive urine test</t>
+          <t>oral ingestion</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr"/>
@@ -8999,7 +8985,7 @@
       <c r="A258" s="2" t="inlineStr"/>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>oral ingestion</t>
+          <t>over-the-counter analgesic</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr"/>
@@ -9032,7 +9018,7 @@
       <c r="A259" s="2" t="inlineStr"/>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>over-the-counter analgesic</t>
+          <t>oxycodone reformulation</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr"/>
@@ -9065,7 +9051,7 @@
       <c r="A260" s="2" t="inlineStr"/>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>oxycodone reformulation</t>
+          <t>parallel trajectory</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr"/>
@@ -9098,7 +9084,7 @@
       <c r="A261" s="2" t="inlineStr"/>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>parallel trajectory</t>
+          <t>past 30 day use</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr"/>
@@ -9128,72 +9114,72 @@
       <c r="S261" s="2" t="inlineStr"/>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="inlineStr"/>
-      <c r="B262" s="2" t="inlineStr">
-        <is>
-          <t>past 30 day use</t>
-        </is>
-      </c>
-      <c r="C262" s="2" t="inlineStr"/>
-      <c r="D262" s="2" t="inlineStr"/>
-      <c r="E262" s="2" t="inlineStr"/>
-      <c r="F262" s="2" t="inlineStr"/>
-      <c r="G262" s="2" t="inlineStr"/>
-      <c r="H262" s="2" t="inlineStr"/>
-      <c r="I262" s="2" t="inlineStr"/>
-      <c r="J262" s="2" t="inlineStr"/>
-      <c r="K262" s="2" t="inlineStr"/>
-      <c r="L262" s="2" t="inlineStr"/>
-      <c r="M262" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N262" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O262" s="2" t="inlineStr"/>
-      <c r="P262" s="2" t="inlineStr"/>
-      <c r="Q262" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R262" s="2" t="inlineStr"/>
-      <c r="S262" s="2" t="inlineStr"/>
+      <c r="A262" t="inlineStr"/>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>past 30-day frequency</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0</v>
+      </c>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
+      <c r="R262" t="inlineStr"/>
+      <c r="S262" t="inlineStr"/>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr"/>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>past 30-day frequency</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr"/>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>0</v>
-      </c>
-      <c r="N263" t="n">
-        <v>0</v>
-      </c>
-      <c r="O263" t="inlineStr"/>
-      <c r="P263" t="inlineStr"/>
-      <c r="Q263" t="inlineStr"/>
-      <c r="R263" t="inlineStr"/>
-      <c r="S263" t="inlineStr"/>
+      <c r="A263" s="2" t="inlineStr"/>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>past 30-day use of e-cigarettes and cigarettes</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr"/>
+      <c r="D263" s="2" t="inlineStr"/>
+      <c r="E263" s="2" t="inlineStr"/>
+      <c r="F263" s="2" t="inlineStr"/>
+      <c r="G263" s="2" t="inlineStr"/>
+      <c r="H263" s="2" t="inlineStr"/>
+      <c r="I263" s="2" t="inlineStr"/>
+      <c r="J263" s="2" t="inlineStr"/>
+      <c r="K263" s="2" t="inlineStr"/>
+      <c r="L263" s="2" t="inlineStr"/>
+      <c r="M263" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O263" s="2" t="inlineStr"/>
+      <c r="P263" s="2" t="inlineStr"/>
+      <c r="Q263" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R263" s="2" t="inlineStr"/>
+      <c r="S263" s="2" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="2" t="inlineStr"/>
       <c r="B264" s="2" t="inlineStr">
         <is>
-          <t>past 30-day use of e-cigarettes and cigarettes</t>
+          <t>past year DSM-5 stimulant use disorder</t>
         </is>
       </c>
       <c r="C264" s="2" t="inlineStr"/>
@@ -9226,7 +9212,7 @@
       <c r="A265" s="2" t="inlineStr"/>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>past year DSM-5 stimulant use disorder</t>
+          <t>past year use</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr"/>
@@ -9259,7 +9245,7 @@
       <c r="A266" s="2" t="inlineStr"/>
       <c r="B266" s="2" t="inlineStr">
         <is>
-          <t>past year use</t>
+          <t>patieint screened for alcohol use</t>
         </is>
       </c>
       <c r="C266" s="2" t="inlineStr"/>
@@ -9292,7 +9278,7 @@
       <c r="A267" s="2" t="inlineStr"/>
       <c r="B267" s="2" t="inlineStr">
         <is>
-          <t>patieint screened for alcohol use</t>
+          <t>patient receiving brief advice on alcohol consumption</t>
         </is>
       </c>
       <c r="C267" s="2" t="inlineStr"/>
@@ -9325,7 +9311,7 @@
       <c r="A268" s="2" t="inlineStr"/>
       <c r="B268" s="2" t="inlineStr">
         <is>
-          <t>patient receiving brief advice on alcohol consumption</t>
+          <t>patient screened positive for higher-risk drinking</t>
         </is>
       </c>
       <c r="C268" s="2" t="inlineStr"/>
@@ -9358,7 +9344,7 @@
       <c r="A269" s="2" t="inlineStr"/>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>patient screened positive for higher-risk drinking</t>
+          <t>patient with opioid use disorder</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr"/>
@@ -9391,7 +9377,7 @@
       <c r="A270" s="2" t="inlineStr"/>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>patient with opioid use disorder</t>
+          <t>patient without opioid use disorder</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr"/>
@@ -9424,7 +9410,7 @@
       <c r="A271" s="2" t="inlineStr"/>
       <c r="B271" s="2" t="inlineStr">
         <is>
-          <t>patient without opioid use disorder</t>
+          <t>patients receiving placebo</t>
         </is>
       </c>
       <c r="C271" s="2" t="inlineStr"/>
@@ -9457,7 +9443,7 @@
       <c r="A272" s="2" t="inlineStr"/>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>patients receiving placebo</t>
+          <t>people coerced into treatment</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr"/>
@@ -9490,7 +9476,7 @@
       <c r="A273" s="2" t="inlineStr"/>
       <c r="B273" s="2" t="inlineStr">
         <is>
-          <t>people coerced into treatment</t>
+          <t>people not attending treatment</t>
         </is>
       </c>
       <c r="C273" s="2" t="inlineStr"/>
@@ -9523,7 +9509,7 @@
       <c r="A274" s="2" t="inlineStr"/>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>people not attending treatment</t>
+          <t>people voluntarily attending treatment</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr"/>
@@ -9556,7 +9542,7 @@
       <c r="A275" s="2" t="inlineStr"/>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>people voluntarily attending treatment</t>
+          <t>people ≥ 60 years old with alcohol use disorder</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr"/>
@@ -9589,7 +9575,7 @@
       <c r="A276" s="2" t="inlineStr"/>
       <c r="B276" s="2" t="inlineStr">
         <is>
-          <t>people ≥ 60 years old with alcohol use disorder</t>
+          <t>people's perception of the harmfulness of e-cigarettes</t>
         </is>
       </c>
       <c r="C276" s="2" t="inlineStr"/>
@@ -9622,7 +9608,7 @@
       <c r="A277" s="2" t="inlineStr"/>
       <c r="B277" s="2" t="inlineStr">
         <is>
-          <t>people's perception of the harmfulness of e-cigarettes</t>
+          <t>percentage of negative samples</t>
         </is>
       </c>
       <c r="C277" s="2" t="inlineStr"/>
@@ -9655,7 +9641,7 @@
       <c r="A278" s="2" t="inlineStr"/>
       <c r="B278" s="2" t="inlineStr">
         <is>
-          <t>percentage of negative samples</t>
+          <t>perception of e-cigarette harm</t>
         </is>
       </c>
       <c r="C278" s="2" t="inlineStr"/>
@@ -9688,7 +9674,7 @@
       <c r="A279" s="2" t="inlineStr"/>
       <c r="B279" s="2" t="inlineStr">
         <is>
-          <t>perception of e-cigarette harm</t>
+          <t>period trend</t>
         </is>
       </c>
       <c r="C279" s="2" t="inlineStr"/>
@@ -9721,7 +9707,7 @@
       <c r="A280" s="2" t="inlineStr"/>
       <c r="B280" s="2" t="inlineStr">
         <is>
-          <t>period trend</t>
+          <t>persistent high-frequency injection</t>
         </is>
       </c>
       <c r="C280" s="2" t="inlineStr"/>
@@ -9754,7 +9740,7 @@
       <c r="A281" s="2" t="inlineStr"/>
       <c r="B281" s="2" t="inlineStr">
         <is>
-          <t>persistent high-frequency injection</t>
+          <t>person undergoing naltrexone treatment for opioid dependence</t>
         </is>
       </c>
       <c r="C281" s="2" t="inlineStr"/>
@@ -9787,7 +9773,7 @@
       <c r="A282" s="2" t="inlineStr"/>
       <c r="B282" s="2" t="inlineStr">
         <is>
-          <t>person undergoing naltrexone treatment for opioid dependence</t>
+          <t>personal income</t>
         </is>
       </c>
       <c r="C282" s="2" t="inlineStr"/>
@@ -9820,7 +9806,7 @@
       <c r="A283" s="2" t="inlineStr"/>
       <c r="B283" s="2" t="inlineStr">
         <is>
-          <t>personal income</t>
+          <t>personal telephone outreach</t>
         </is>
       </c>
       <c r="C283" s="2" t="inlineStr"/>
@@ -9853,7 +9839,7 @@
       <c r="A284" s="2" t="inlineStr"/>
       <c r="B284" s="2" t="inlineStr">
         <is>
-          <t>personal telephone outreach</t>
+          <t>pharmaceutical opioid</t>
         </is>
       </c>
       <c r="C284" s="2" t="inlineStr"/>
@@ -9886,7 +9872,7 @@
       <c r="A285" s="2" t="inlineStr"/>
       <c r="B285" s="2" t="inlineStr">
         <is>
-          <t>pharmaceutical opioid</t>
+          <t>pharmaceutical opioid emergency department attendance</t>
         </is>
       </c>
       <c r="C285" s="2" t="inlineStr"/>
@@ -9919,7 +9905,7 @@
       <c r="A286" s="2" t="inlineStr"/>
       <c r="B286" s="2" t="inlineStr">
         <is>
-          <t>pharmaceutical opioid emergency department attendance</t>
+          <t>pharmaceutical opioid morbidity</t>
         </is>
       </c>
       <c r="C286" s="2" t="inlineStr"/>
@@ -9952,7 +9938,7 @@
       <c r="A287" s="2" t="inlineStr"/>
       <c r="B287" s="2" t="inlineStr">
         <is>
-          <t>pharmaceutical opioid morbidity</t>
+          <t>pharmacokinetics</t>
         </is>
       </c>
       <c r="C287" s="2" t="inlineStr"/>
@@ -9985,7 +9971,7 @@
       <c r="A288" s="2" t="inlineStr"/>
       <c r="B288" s="2" t="inlineStr">
         <is>
-          <t>pharmacokinetics</t>
+          <t>pharmacotherapy</t>
         </is>
       </c>
       <c r="C288" s="2" t="inlineStr"/>
@@ -10018,7 +10004,7 @@
       <c r="A289" s="2" t="inlineStr"/>
       <c r="B289" s="2" t="inlineStr">
         <is>
-          <t>pharmacotherapy</t>
+          <t>physical abuse</t>
         </is>
       </c>
       <c r="C289" s="2" t="inlineStr"/>
@@ -10051,7 +10037,7 @@
       <c r="A290" s="2" t="inlineStr"/>
       <c r="B290" s="2" t="inlineStr">
         <is>
-          <t>physical abuse</t>
+          <t>placebo injection</t>
         </is>
       </c>
       <c r="C290" s="2" t="inlineStr"/>
@@ -10084,7 +10070,7 @@
       <c r="A291" s="2" t="inlineStr"/>
       <c r="B291" s="2" t="inlineStr">
         <is>
-          <t>placebo injection</t>
+          <t>plasma half-life</t>
         </is>
       </c>
       <c r="C291" s="2" t="inlineStr"/>
@@ -10117,7 +10103,7 @@
       <c r="A292" s="2" t="inlineStr"/>
       <c r="B292" s="2" t="inlineStr">
         <is>
-          <t>plasma half-life</t>
+          <t>pmax (price at which consumption becomes elastic)</t>
         </is>
       </c>
       <c r="C292" s="2" t="inlineStr"/>
@@ -10150,7 +10136,7 @@
       <c r="A293" s="2" t="inlineStr"/>
       <c r="B293" s="2" t="inlineStr">
         <is>
-          <t>pmax (price at which consumption becomes elastic)</t>
+          <t>pmax [price at maximum expenditure]</t>
         </is>
       </c>
       <c r="C293" s="2" t="inlineStr"/>
@@ -10183,7 +10169,7 @@
       <c r="A294" s="2" t="inlineStr"/>
       <c r="B294" s="2" t="inlineStr">
         <is>
-          <t>pmax [price at maximum expenditure]</t>
+          <t>polarisation</t>
         </is>
       </c>
       <c r="C294" s="2" t="inlineStr"/>
@@ -10216,7 +10202,7 @@
       <c r="A295" s="2" t="inlineStr"/>
       <c r="B295" s="2" t="inlineStr">
         <is>
-          <t>polarisation</t>
+          <t>polarised trend</t>
         </is>
       </c>
       <c r="C295" s="2" t="inlineStr"/>
@@ -10249,7 +10235,7 @@
       <c r="A296" s="2" t="inlineStr"/>
       <c r="B296" s="2" t="inlineStr">
         <is>
-          <t>polarised trend</t>
+          <t>polysubstance use class</t>
         </is>
       </c>
       <c r="C296" s="2" t="inlineStr"/>
@@ -10282,7 +10268,7 @@
       <c r="A297" s="2" t="inlineStr"/>
       <c r="B297" s="2" t="inlineStr">
         <is>
-          <t>polysubstance use class</t>
+          <t>pooled effect size</t>
         </is>
       </c>
       <c r="C297" s="2" t="inlineStr"/>
@@ -10315,7 +10301,7 @@
       <c r="A298" s="2" t="inlineStr"/>
       <c r="B298" s="2" t="inlineStr">
         <is>
-          <t>pooled effect size</t>
+          <t>population-level class of polysubstance use</t>
         </is>
       </c>
       <c r="C298" s="2" t="inlineStr"/>
@@ -10348,7 +10334,7 @@
       <c r="A299" s="2" t="inlineStr"/>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>population-level class of polysubstance use</t>
+          <t>population-level proactive tobacco treatment</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr"/>
@@ -10381,7 +10367,7 @@
       <c r="A300" s="2" t="inlineStr"/>
       <c r="B300" s="2" t="inlineStr">
         <is>
-          <t>population-level proactive tobacco treatment</t>
+          <t>population-level quit rate</t>
         </is>
       </c>
       <c r="C300" s="2" t="inlineStr"/>
@@ -10414,7 +10400,7 @@
       <c r="A301" s="2" t="inlineStr"/>
       <c r="B301" s="2" t="inlineStr">
         <is>
-          <t>population-level quit rate</t>
+          <t>population-level stop smoking service reach and impact</t>
         </is>
       </c>
       <c r="C301" s="2" t="inlineStr"/>
@@ -10447,7 +10433,7 @@
       <c r="A302" s="2" t="inlineStr"/>
       <c r="B302" s="2" t="inlineStr">
         <is>
-          <t>population-level stop smoking service reach and impact</t>
+          <t>population-level, 6-month prolonged smoking abstinence rate</t>
         </is>
       </c>
       <c r="C302" s="2" t="inlineStr"/>
@@ -10480,7 +10466,7 @@
       <c r="A303" s="2" t="inlineStr"/>
       <c r="B303" s="2" t="inlineStr">
         <is>
-          <t>population-level, 6-month prolonged smoking abstinence rate</t>
+          <t>positive urine drug test result</t>
         </is>
       </c>
       <c r="C303" s="2" t="inlineStr"/>
@@ -10513,7 +10499,7 @@
       <c r="A304" s="2" t="inlineStr"/>
       <c r="B304" s="2" t="inlineStr">
         <is>
-          <t>positive urine drug test result</t>
+          <t>post-hoc analysis</t>
         </is>
       </c>
       <c r="C304" s="2" t="inlineStr"/>
@@ -10546,7 +10532,7 @@
       <c r="A305" s="2" t="inlineStr"/>
       <c r="B305" s="2" t="inlineStr">
         <is>
-          <t>post-hoc analysis</t>
+          <t>post-traumatic stress disorder</t>
         </is>
       </c>
       <c r="C305" s="2" t="inlineStr"/>
@@ -10579,7 +10565,7 @@
       <c r="A306" s="2" t="inlineStr"/>
       <c r="B306" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder</t>
+          <t>preclinical evidence</t>
         </is>
       </c>
       <c r="C306" s="2" t="inlineStr"/>
@@ -10612,7 +10598,7 @@
       <c r="A307" s="2" t="inlineStr"/>
       <c r="B307" s="2" t="inlineStr">
         <is>
-          <t>preclinical evidence</t>
+          <t>predictor of dropout</t>
         </is>
       </c>
       <c r="C307" s="2" t="inlineStr"/>
@@ -10645,7 +10631,7 @@
       <c r="A308" s="2" t="inlineStr"/>
       <c r="B308" s="2" t="inlineStr">
         <is>
-          <t>predictor of dropout</t>
+          <t>predictor of duration of use</t>
         </is>
       </c>
       <c r="C308" s="2" t="inlineStr"/>
@@ -10678,7 +10664,7 @@
       <c r="A309" s="2" t="inlineStr"/>
       <c r="B309" s="2" t="inlineStr">
         <is>
-          <t>predictor of duration of use</t>
+          <t>predictor of smoking cessation</t>
         </is>
       </c>
       <c r="C309" s="2" t="inlineStr"/>
@@ -10711,7 +10697,7 @@
       <c r="A310" s="2" t="inlineStr"/>
       <c r="B310" s="2" t="inlineStr">
         <is>
-          <t>predictor of smoking cessation</t>
+          <t>predictor of success in stopping smoking</t>
         </is>
       </c>
       <c r="C310" s="2" t="inlineStr"/>
@@ -10744,7 +10730,7 @@
       <c r="A311" s="2" t="inlineStr"/>
       <c r="B311" s="2" t="inlineStr">
         <is>
-          <t>predictor of success in stopping smoking</t>
+          <t>prescribed analgesic</t>
         </is>
       </c>
       <c r="C311" s="2" t="inlineStr"/>
@@ -10777,7 +10763,7 @@
       <c r="A312" s="2" t="inlineStr"/>
       <c r="B312" s="2" t="inlineStr">
         <is>
-          <t>prescribed analgesic</t>
+          <t>prescribed cannabinoid medication</t>
         </is>
       </c>
       <c r="C312" s="2" t="inlineStr"/>
@@ -10810,7 +10796,7 @@
       <c r="A313" s="2" t="inlineStr"/>
       <c r="B313" s="2" t="inlineStr">
         <is>
-          <t>prescribed cannabinoid medication</t>
+          <t>prescription buprenorphine use rate</t>
         </is>
       </c>
       <c r="C313" s="2" t="inlineStr"/>
@@ -10843,7 +10829,7 @@
       <c r="A314" s="2" t="inlineStr"/>
       <c r="B314" s="2" t="inlineStr">
         <is>
-          <t>prescription buprenorphine use rate</t>
+          <t>prescription opioid overdose-related mortality rate</t>
         </is>
       </c>
       <c r="C314" s="2" t="inlineStr"/>
@@ -10876,7 +10862,7 @@
       <c r="A315" s="2" t="inlineStr"/>
       <c r="B315" s="2" t="inlineStr">
         <is>
-          <t>prescription opioid overdose-related mortality rate</t>
+          <t>presence of other drugs</t>
         </is>
       </c>
       <c r="C315" s="2" t="inlineStr"/>
@@ -10909,7 +10895,7 @@
       <c r="A316" s="2" t="inlineStr"/>
       <c r="B316" s="2" t="inlineStr">
         <is>
-          <t>presence of other drugs</t>
+          <t>prevalence of continuous use</t>
         </is>
       </c>
       <c r="C316" s="2" t="inlineStr"/>
@@ -10942,7 +10928,7 @@
       <c r="A317" s="2" t="inlineStr"/>
       <c r="B317" s="2" t="inlineStr">
         <is>
-          <t>prevalence of continuous use</t>
+          <t>primary care</t>
         </is>
       </c>
       <c r="C317" s="2" t="inlineStr"/>
@@ -10975,7 +10961,7 @@
       <c r="A318" s="2" t="inlineStr"/>
       <c r="B318" s="2" t="inlineStr">
         <is>
-          <t>primary care</t>
+          <t>primary care clinic</t>
         </is>
       </c>
       <c r="C318" s="2" t="inlineStr"/>
@@ -11008,7 +10994,7 @@
       <c r="A319" s="2" t="inlineStr"/>
       <c r="B319" s="2" t="inlineStr">
         <is>
-          <t>primary care clinic</t>
+          <t>primary care practice</t>
         </is>
       </c>
       <c r="C319" s="2" t="inlineStr"/>
@@ -11041,7 +11027,7 @@
       <c r="A320" s="2" t="inlineStr"/>
       <c r="B320" s="2" t="inlineStr">
         <is>
-          <t>primary care practice</t>
+          <t>primary care provider</t>
         </is>
       </c>
       <c r="C320" s="2" t="inlineStr"/>
@@ -11074,7 +11060,7 @@
       <c r="A321" s="2" t="inlineStr"/>
       <c r="B321" s="2" t="inlineStr">
         <is>
-          <t>primary care provider</t>
+          <t>primary care-based buprenorphine</t>
         </is>
       </c>
       <c r="C321" s="2" t="inlineStr"/>
@@ -11107,7 +11093,7 @@
       <c r="A322" s="2" t="inlineStr"/>
       <c r="B322" s="2" t="inlineStr">
         <is>
-          <t>primary care-based buprenorphine</t>
+          <t>primary endpoint</t>
         </is>
       </c>
       <c r="C322" s="2" t="inlineStr"/>
@@ -11140,7 +11126,7 @@
       <c r="A323" s="2" t="inlineStr"/>
       <c r="B323" s="2" t="inlineStr">
         <is>
-          <t>primary endpoint</t>
+          <t>primary-care based stop smoking support</t>
         </is>
       </c>
       <c r="C323" s="2" t="inlineStr"/>
@@ -11173,7 +11159,7 @@
       <c r="A324" s="2" t="inlineStr"/>
       <c r="B324" s="2" t="inlineStr">
         <is>
-          <t>primary-care based stop smoking support</t>
+          <t>proactive outreach</t>
         </is>
       </c>
       <c r="C324" s="2" t="inlineStr"/>
@@ -11206,7 +11192,7 @@
       <c r="A325" s="2" t="inlineStr"/>
       <c r="B325" s="2" t="inlineStr">
         <is>
-          <t>proactive outreach</t>
+          <t>probabilistic sensitivity analysis</t>
         </is>
       </c>
       <c r="C325" s="2" t="inlineStr"/>
@@ -11239,7 +11225,7 @@
       <c r="A326" s="2" t="inlineStr"/>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>probabilistic sensitivity analysis</t>
+          <t>problem alcohol use</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr"/>
@@ -11272,7 +11258,7 @@
       <c r="A327" s="2" t="inlineStr"/>
       <c r="B327" s="2" t="inlineStr">
         <is>
-          <t>problem alcohol use</t>
+          <t>product use decision</t>
         </is>
       </c>
       <c r="C327" s="2" t="inlineStr"/>
@@ -11305,7 +11291,7 @@
       <c r="A328" s="2" t="inlineStr"/>
       <c r="B328" s="2" t="inlineStr">
         <is>
-          <t>product use decision</t>
+          <t>product use status</t>
         </is>
       </c>
       <c r="C328" s="2" t="inlineStr"/>
@@ -11338,7 +11324,7 @@
       <c r="A329" s="2" t="inlineStr"/>
       <c r="B329" s="2" t="inlineStr">
         <is>
-          <t>product use status</t>
+          <t>propensity matched</t>
         </is>
       </c>
       <c r="C329" s="2" t="inlineStr"/>
@@ -11371,7 +11357,7 @@
       <c r="A330" s="2" t="inlineStr"/>
       <c r="B330" s="2" t="inlineStr">
         <is>
-          <t>propensity matched</t>
+          <t>propensity matching variable</t>
         </is>
       </c>
       <c r="C330" s="2" t="inlineStr"/>
@@ -11404,7 +11390,7 @@
       <c r="A331" s="2" t="inlineStr"/>
       <c r="B331" s="2" t="inlineStr">
         <is>
-          <t>propensity matching variable</t>
+          <t>propspective cohort record linkage correlational design</t>
         </is>
       </c>
       <c r="C331" s="2" t="inlineStr"/>
@@ -11437,7 +11423,7 @@
       <c r="A332" s="2" t="inlineStr"/>
       <c r="B332" s="2" t="inlineStr">
         <is>
-          <t>propspective cohort record linkage correlational design</t>
+          <t>prospectively substantiated child maltreatment</t>
         </is>
       </c>
       <c r="C332" s="2" t="inlineStr"/>
@@ -11470,7 +11456,7 @@
       <c r="A333" s="2" t="inlineStr"/>
       <c r="B333" s="2" t="inlineStr">
         <is>
-          <t>prospectively substantiated child maltreatment</t>
+          <t>protective effect</t>
         </is>
       </c>
       <c r="C333" s="2" t="inlineStr"/>
@@ -11503,7 +11489,7 @@
       <c r="A334" s="2" t="inlineStr"/>
       <c r="B334" s="2" t="inlineStr">
         <is>
-          <t>protective effect</t>
+          <t>psychiatric co-morbidity</t>
         </is>
       </c>
       <c r="C334" s="2" t="inlineStr"/>
@@ -11536,7 +11522,7 @@
       <c r="A335" s="2" t="inlineStr"/>
       <c r="B335" s="2" t="inlineStr">
         <is>
-          <t>psychiatric co-morbidity</t>
+          <t>psychiatric disorder</t>
         </is>
       </c>
       <c r="C335" s="2" t="inlineStr"/>
@@ -11569,7 +11555,7 @@
       <c r="A336" s="2" t="inlineStr"/>
       <c r="B336" s="2" t="inlineStr">
         <is>
-          <t>psychiatric disorder</t>
+          <t>psychiatric morbidity</t>
         </is>
       </c>
       <c r="C336" s="2" t="inlineStr"/>
@@ -11602,7 +11588,7 @@
       <c r="A337" s="2" t="inlineStr"/>
       <c r="B337" s="2" t="inlineStr">
         <is>
-          <t>psychiatric morbidity</t>
+          <t>psychological distress</t>
         </is>
       </c>
       <c r="C337" s="2" t="inlineStr"/>
@@ -11635,7 +11621,7 @@
       <c r="A338" s="2" t="inlineStr"/>
       <c r="B338" s="2" t="inlineStr">
         <is>
-          <t>psychological distress</t>
+          <t>psychosocial substance use disorder treatment</t>
         </is>
       </c>
       <c r="C338" s="2" t="inlineStr"/>
@@ -11668,7 +11654,7 @@
       <c r="A339" s="2" t="inlineStr"/>
       <c r="B339" s="2" t="inlineStr">
         <is>
-          <t>psychosocial substance use disorder treatment</t>
+          <t>public health issue</t>
         </is>
       </c>
       <c r="C339" s="2" t="inlineStr"/>
@@ -11701,7 +11687,7 @@
       <c r="A340" s="2" t="inlineStr"/>
       <c r="B340" s="2" t="inlineStr">
         <is>
-          <t>public health issue</t>
+          <t>public health problem</t>
         </is>
       </c>
       <c r="C340" s="2" t="inlineStr"/>
@@ -11731,14 +11717,26 @@
       <c r="S340" s="2" t="inlineStr"/>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="inlineStr"/>
+      <c r="A341" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000320</t>
+        </is>
+      </c>
       <c r="B341" s="2" t="inlineStr">
         <is>
-          <t>public health problem</t>
-        </is>
-      </c>
-      <c r="C341" s="2" t="inlineStr"/>
-      <c r="D341" s="2" t="inlineStr"/>
+          <t>public policy intervention</t>
+        </is>
+      </c>
+      <c r="C341" s="2" t="inlineStr">
+        <is>
+          <t>An intervention that realises a government policy.</t>
+        </is>
+      </c>
+      <c r="D341" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
       <c r="E341" s="2" t="inlineStr"/>
       <c r="F341" s="2" t="inlineStr"/>
       <c r="G341" s="2" t="inlineStr"/>
@@ -11764,26 +11762,14 @@
       <c r="S341" s="2" t="inlineStr"/>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000320</t>
-        </is>
-      </c>
+      <c r="A342" s="2" t="inlineStr"/>
       <c r="B342" s="2" t="inlineStr">
         <is>
-          <t>public policy intervention</t>
-        </is>
-      </c>
-      <c r="C342" s="2" t="inlineStr">
-        <is>
-          <t>An intervention that realises a government policy.</t>
-        </is>
-      </c>
-      <c r="D342" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
+          <t>publication bias</t>
+        </is>
+      </c>
+      <c r="C342" s="2" t="inlineStr"/>
+      <c r="D342" s="2" t="inlineStr"/>
       <c r="E342" s="2" t="inlineStr"/>
       <c r="F342" s="2" t="inlineStr"/>
       <c r="G342" s="2" t="inlineStr"/>
@@ -11812,7 +11798,7 @@
       <c r="A343" s="2" t="inlineStr"/>
       <c r="B343" s="2" t="inlineStr">
         <is>
-          <t>publication bias</t>
+          <t>quality-adjusted life year (QALY)</t>
         </is>
       </c>
       <c r="C343" s="2" t="inlineStr"/>
@@ -11845,7 +11831,7 @@
       <c r="A344" s="2" t="inlineStr"/>
       <c r="B344" s="2" t="inlineStr">
         <is>
-          <t>quality-adjusted life year (QALY)</t>
+          <t>quantile</t>
         </is>
       </c>
       <c r="C344" s="2" t="inlineStr"/>
@@ -11878,7 +11864,7 @@
       <c r="A345" s="2" t="inlineStr"/>
       <c r="B345" s="2" t="inlineStr">
         <is>
-          <t>quantile</t>
+          <t>quantity-frequency measure</t>
         </is>
       </c>
       <c r="C345" s="2" t="inlineStr"/>
@@ -11911,7 +11897,7 @@
       <c r="A346" s="2" t="inlineStr"/>
       <c r="B346" s="2" t="inlineStr">
         <is>
-          <t>quantity-frequency measure</t>
+          <t>quit outcome</t>
         </is>
       </c>
       <c r="C346" s="2" t="inlineStr"/>
@@ -11941,72 +11927,72 @@
       <c r="S346" s="2" t="inlineStr"/>
     </row>
     <row r="347">
-      <c r="A347" s="2" t="inlineStr"/>
-      <c r="B347" s="2" t="inlineStr">
-        <is>
-          <t>quit outcome</t>
-        </is>
-      </c>
-      <c r="C347" s="2" t="inlineStr"/>
-      <c r="D347" s="2" t="inlineStr"/>
-      <c r="E347" s="2" t="inlineStr"/>
-      <c r="F347" s="2" t="inlineStr"/>
-      <c r="G347" s="2" t="inlineStr"/>
-      <c r="H347" s="2" t="inlineStr"/>
-      <c r="I347" s="2" t="inlineStr"/>
-      <c r="J347" s="2" t="inlineStr"/>
-      <c r="K347" s="2" t="inlineStr"/>
-      <c r="L347" s="2" t="inlineStr"/>
-      <c r="M347" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N347" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O347" s="2" t="inlineStr"/>
-      <c r="P347" s="2" t="inlineStr"/>
-      <c r="Q347" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R347" s="2" t="inlineStr"/>
-      <c r="S347" s="2" t="inlineStr"/>
+      <c r="A347" t="inlineStr"/>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>random effects meta-analysis</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
+      <c r="M347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N347" t="n">
+        <v>0</v>
+      </c>
+      <c r="O347" t="inlineStr"/>
+      <c r="P347" t="inlineStr"/>
+      <c r="Q347" t="inlineStr"/>
+      <c r="R347" t="inlineStr"/>
+      <c r="S347" t="inlineStr"/>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr"/>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>random effects meta-analysis</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr"/>
-      <c r="D348" t="inlineStr"/>
-      <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr"/>
-      <c r="G348" t="inlineStr"/>
-      <c r="H348" t="inlineStr"/>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>0</v>
-      </c>
-      <c r="N348" t="n">
-        <v>0</v>
-      </c>
-      <c r="O348" t="inlineStr"/>
-      <c r="P348" t="inlineStr"/>
-      <c r="Q348" t="inlineStr"/>
-      <c r="R348" t="inlineStr"/>
-      <c r="S348" t="inlineStr"/>
+      <c r="A348" s="2" t="inlineStr"/>
+      <c r="B348" s="2" t="inlineStr">
+        <is>
+          <t>random-effect meta analysis</t>
+        </is>
+      </c>
+      <c r="C348" s="2" t="inlineStr"/>
+      <c r="D348" s="2" t="inlineStr"/>
+      <c r="E348" s="2" t="inlineStr"/>
+      <c r="F348" s="2" t="inlineStr"/>
+      <c r="G348" s="2" t="inlineStr"/>
+      <c r="H348" s="2" t="inlineStr"/>
+      <c r="I348" s="2" t="inlineStr"/>
+      <c r="J348" s="2" t="inlineStr"/>
+      <c r="K348" s="2" t="inlineStr"/>
+      <c r="L348" s="2" t="inlineStr"/>
+      <c r="M348" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N348" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O348" s="2" t="inlineStr"/>
+      <c r="P348" s="2" t="inlineStr"/>
+      <c r="Q348" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R348" s="2" t="inlineStr"/>
+      <c r="S348" s="2" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="2" t="inlineStr"/>
       <c r="B349" s="2" t="inlineStr">
         <is>
-          <t>random-effect meta analysis</t>
+          <t>rate of opioid-related ambulance attendance</t>
         </is>
       </c>
       <c r="C349" s="2" t="inlineStr"/>
@@ -12039,7 +12025,7 @@
       <c r="A350" s="2" t="inlineStr"/>
       <c r="B350" s="2" t="inlineStr">
         <is>
-          <t>rate of opioid-related ambulance attendance</t>
+          <t>rate of opioid-related emergency department attendance</t>
         </is>
       </c>
       <c r="C350" s="2" t="inlineStr"/>
@@ -12072,7 +12058,7 @@
       <c r="A351" s="2" t="inlineStr"/>
       <c r="B351" s="2" t="inlineStr">
         <is>
-          <t>rate of opioid-related emergency department attendance</t>
+          <t>record linkage</t>
         </is>
       </c>
       <c r="C351" s="2" t="inlineStr"/>
@@ -12105,7 +12091,7 @@
       <c r="A352" s="2" t="inlineStr"/>
       <c r="B352" s="2" t="inlineStr">
         <is>
-          <t>record linkage</t>
+          <t>reduced smoking</t>
         </is>
       </c>
       <c r="C352" s="2" t="inlineStr"/>
@@ -12138,7 +12124,7 @@
       <c r="A353" s="2" t="inlineStr"/>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>reduced smoking</t>
+          <t>reformulation of oxycodone</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr"/>
@@ -12171,7 +12157,7 @@
       <c r="A354" s="2" t="inlineStr"/>
       <c r="B354" s="2" t="inlineStr">
         <is>
-          <t>reformulation of oxycodone</t>
+          <t>regular smoking</t>
         </is>
       </c>
       <c r="C354" s="2" t="inlineStr"/>
@@ -12204,7 +12190,7 @@
       <c r="A355" s="2" t="inlineStr"/>
       <c r="B355" s="2" t="inlineStr">
         <is>
-          <t>regular smoking</t>
+          <t>reinforcer</t>
         </is>
       </c>
       <c r="C355" s="2" t="inlineStr"/>
@@ -12237,7 +12223,7 @@
       <c r="A356" s="2" t="inlineStr"/>
       <c r="B356" s="2" t="inlineStr">
         <is>
-          <t>reinforcer</t>
+          <t>reinforcing value of tobacco</t>
         </is>
       </c>
       <c r="C356" s="2" t="inlineStr"/>
@@ -12270,7 +12256,7 @@
       <c r="A357" s="2" t="inlineStr"/>
       <c r="B357" s="2" t="inlineStr">
         <is>
-          <t>reinforcing value of tobacco</t>
+          <t>relapse rate</t>
         </is>
       </c>
       <c r="C357" s="2" t="inlineStr"/>
@@ -12303,7 +12289,7 @@
       <c r="A358" s="2" t="inlineStr"/>
       <c r="B358" s="2" t="inlineStr">
         <is>
-          <t>relapse rate</t>
+          <t>relapse to smoking after discharge</t>
         </is>
       </c>
       <c r="C358" s="2" t="inlineStr"/>
@@ -12336,7 +12322,7 @@
       <c r="A359" s="2" t="inlineStr"/>
       <c r="B359" s="2" t="inlineStr">
         <is>
-          <t>relapse to smoking after discharge</t>
+          <t>relationship status</t>
         </is>
       </c>
       <c r="C359" s="2" t="inlineStr"/>
@@ -12369,7 +12355,7 @@
       <c r="A360" s="2" t="inlineStr"/>
       <c r="B360" s="2" t="inlineStr">
         <is>
-          <t>relationship status</t>
+          <t>relative risk of fracture</t>
         </is>
       </c>
       <c r="C360" s="2" t="inlineStr"/>
@@ -12402,7 +12388,7 @@
       <c r="A361" s="2" t="inlineStr"/>
       <c r="B361" s="2" t="inlineStr">
         <is>
-          <t>relative risk of fracture</t>
+          <t>remote delivery</t>
         </is>
       </c>
       <c r="C361" s="2" t="inlineStr"/>
@@ -12435,7 +12421,7 @@
       <c r="A362" s="2" t="inlineStr"/>
       <c r="B362" s="2" t="inlineStr">
         <is>
-          <t>remote delivery</t>
+          <t>remote monitoring</t>
         </is>
       </c>
       <c r="C362" s="2" t="inlineStr"/>
@@ -12468,7 +12454,7 @@
       <c r="A363" s="2" t="inlineStr"/>
       <c r="B363" s="2" t="inlineStr">
         <is>
-          <t>remote monitoring</t>
+          <t>remoteness of residence</t>
         </is>
       </c>
       <c r="C363" s="2" t="inlineStr"/>
@@ -12501,7 +12487,7 @@
       <c r="A364" s="2" t="inlineStr"/>
       <c r="B364" s="2" t="inlineStr">
         <is>
-          <t>remoteness of residence</t>
+          <t>repeat cross-sectional survey</t>
         </is>
       </c>
       <c r="C364" s="2" t="inlineStr"/>
@@ -12534,7 +12520,7 @@
       <c r="A365" s="2" t="inlineStr"/>
       <c r="B365" s="2" t="inlineStr">
         <is>
-          <t>repeat cross-sectional survey</t>
+          <t>repeated cross-sectional design</t>
         </is>
       </c>
       <c r="C365" s="2" t="inlineStr"/>
@@ -12564,15 +12550,31 @@
       <c r="S365" s="2" t="inlineStr"/>
     </row>
     <row r="366">
-      <c r="A366" s="2" t="inlineStr"/>
+      <c r="A366" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000321</t>
+        </is>
+      </c>
       <c r="B366" s="2" t="inlineStr">
         <is>
-          <t>repeated cross-sectional design</t>
-        </is>
-      </c>
-      <c r="C366" s="2" t="inlineStr"/>
-      <c r="D366" s="2" t="inlineStr"/>
-      <c r="E366" s="2" t="inlineStr"/>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="C366" s="2" t="inlineStr">
+        <is>
+          <t>A planned process in which a service provider performs a task (i.e. a planned process) for a service consumer.</t>
+        </is>
+      </c>
+      <c r="D366" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E366" s="2" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F366" s="2" t="inlineStr"/>
       <c r="G366" s="2" t="inlineStr"/>
       <c r="H366" s="2" t="inlineStr"/>
@@ -12587,7 +12589,11 @@
         <v>0</v>
       </c>
       <c r="O366" s="2" t="inlineStr"/>
-      <c r="P366" s="2" t="inlineStr"/>
+      <c r="P366" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q366" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -12597,31 +12603,15 @@
       <c r="S366" s="2" t="inlineStr"/>
     </row>
     <row r="367">
-      <c r="A367" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000321</t>
-        </is>
-      </c>
+      <c r="A367" s="2" t="inlineStr"/>
       <c r="B367" s="2" t="inlineStr">
         <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="C367" s="2" t="inlineStr">
-        <is>
-          <t>A planned process in which a service provider performs a task (i.e. a planned process) for a service consumer.</t>
-        </is>
-      </c>
-      <c r="D367" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="E367" s="2" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>single-factor between-subjects design</t>
+        </is>
+      </c>
+      <c r="C367" s="2" t="inlineStr"/>
+      <c r="D367" s="2" t="inlineStr"/>
+      <c r="E367" s="2" t="inlineStr"/>
       <c r="F367" s="2" t="inlineStr"/>
       <c r="G367" s="2" t="inlineStr"/>
       <c r="H367" s="2" t="inlineStr"/>
@@ -12636,11 +12626,7 @@
         <v>0</v>
       </c>
       <c r="O367" s="2" t="inlineStr"/>
-      <c r="P367" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P367" s="2" t="inlineStr"/>
       <c r="Q367" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -12653,7 +12639,7 @@
       <c r="A368" s="2" t="inlineStr"/>
       <c r="B368" s="2" t="inlineStr">
         <is>
-          <t>single-factor between-subjects design</t>
+          <t>smoking cessation medication</t>
         </is>
       </c>
       <c r="C368" s="2" t="inlineStr"/>
@@ -12686,7 +12672,7 @@
       <c r="A369" s="2" t="inlineStr"/>
       <c r="B369" s="2" t="inlineStr">
         <is>
-          <t>smoking cessation medication</t>
+          <t>smoking cessation programme</t>
         </is>
       </c>
       <c r="C369" s="2" t="inlineStr"/>
@@ -12716,10 +12702,14 @@
       <c r="S369" s="2" t="inlineStr"/>
     </row>
     <row r="370">
-      <c r="A370" s="2" t="inlineStr"/>
+      <c r="A370" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000824</t>
+        </is>
+      </c>
       <c r="B370" s="2" t="inlineStr">
         <is>
-          <t>smoking cessation programme</t>
+          <t>toxicant</t>
         </is>
       </c>
       <c r="C370" s="2" t="inlineStr"/>
@@ -12748,43 +12738,6 @@
       <c r="R370" s="2" t="inlineStr"/>
       <c r="S370" s="2" t="inlineStr"/>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000824</t>
-        </is>
-      </c>
-      <c r="B371" s="2" t="inlineStr">
-        <is>
-          <t>toxicant</t>
-        </is>
-      </c>
-      <c r="C371" s="2" t="inlineStr"/>
-      <c r="D371" s="2" t="inlineStr"/>
-      <c r="E371" s="2" t="inlineStr"/>
-      <c r="F371" s="2" t="inlineStr"/>
-      <c r="G371" s="2" t="inlineStr"/>
-      <c r="H371" s="2" t="inlineStr"/>
-      <c r="I371" s="2" t="inlineStr"/>
-      <c r="J371" s="2" t="inlineStr"/>
-      <c r="K371" s="2" t="inlineStr"/>
-      <c r="L371" s="2" t="inlineStr"/>
-      <c r="M371" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N371" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O371" s="2" t="inlineStr"/>
-      <c r="P371" s="2" t="inlineStr"/>
-      <c r="Q371" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R371" s="2" t="inlineStr"/>
-      <c r="S371" s="2" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
